--- a/Regression/testing models outputs.xlsx
+++ b/Regression/testing models outputs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95CA785-3185-499F-9272-0039D631A51E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D7C69B-2EDB-4D13-9811-41B86E5D65C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Social" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -140,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +157,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -188,27 +202,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
+            <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="50000"/>
                     <a:lumOff val="50000"/>
-                  </a:sysClr>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mj-ea"/>
@@ -216,49 +216,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>TESTING DATASET WITH PREDICTIONS FOR SOCIAL</a:t>
             </a:r>
           </a:p>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
+            <a:pPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t> CATAEGORY</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -266,7 +235,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2719931486577723"/>
+          <c:x val="0.24748616477039057"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -282,27 +251,13 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
+          <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="50000"/>
                   <a:lumOff val="50000"/>
-                </a:sysClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mj-ea"/>
@@ -395,31 +350,7 @@
                   <c:pt idx="0">
                     <c:v>2011</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2011</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
                     <c:v>2012</c:v>
                   </c:pt>
                 </c:lvl>
@@ -536,31 +467,7 @@
                   <c:pt idx="0">
                     <c:v>2011</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2011</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
                     <c:v>2012</c:v>
                   </c:pt>
                 </c:lvl>
@@ -613,7 +520,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -705,31 +611,7 @@
                         <c:pt idx="0">
                           <c:v>2011</c:v>
                         </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2011</c:v>
-                        </c:pt>
                         <c:pt idx="5">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
                           <c:v>2012</c:v>
                         </c:pt>
                       </c:lvl>
@@ -794,7 +676,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Social!$F$1</c15:sqref>
@@ -821,7 +703,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Social!$A$2:$B$11</c15:sqref>
@@ -866,31 +748,7 @@
                         <c:pt idx="0">
                           <c:v>2011</c:v>
                         </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2011</c:v>
-                        </c:pt>
                         <c:pt idx="5">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
                           <c:v>2012</c:v>
                         </c:pt>
                       </c:lvl>
@@ -899,7 +757,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Social!$F$2:$F$11</c15:sqref>
@@ -942,7 +800,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-4E33-4E07-89C2-AC169EFF8644}"/>
                   </c:ext>
@@ -1371,7 +1229,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>TESTING DATASET WITH PREDICTIONS FOR EDUCATION CATAEGORY</a:t>
             </a:r>
           </a:p>
@@ -1496,49 +1358,7 @@
                   <c:pt idx="0">
                     <c:v>2011</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2011</c:v>
-                  </c:pt>
                   <c:pt idx="8">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
                     <c:v>2012</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1691,49 +1511,7 @@
                   <c:pt idx="0">
                     <c:v>2011</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2011</c:v>
-                  </c:pt>
                   <c:pt idx="8">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
                     <c:v>2012</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1913,49 +1691,7 @@
                         <c:pt idx="0">
                           <c:v>2011</c:v>
                         </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2011</c:v>
-                        </c:pt>
                         <c:pt idx="8">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
                           <c:v>2012</c:v>
                         </c:pt>
                       </c:lvl>
@@ -2038,7 +1774,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Educational!$F$1</c15:sqref>
@@ -2065,7 +1801,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Educational!$A$2:$B$17</c15:sqref>
@@ -2128,49 +1864,7 @@
                         <c:pt idx="0">
                           <c:v>2011</c:v>
                         </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="5">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2011</c:v>
-                        </c:pt>
                         <c:pt idx="8">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="10">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="11">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="12">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="13">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="14">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="15">
                           <c:v>2012</c:v>
                         </c:pt>
                       </c:lvl>
@@ -2179,7 +1873,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Educational!$F$2:$F$17</c15:sqref>
@@ -2240,7 +1934,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-3C2A-4283-94DF-A05F3FFAC8E4}"/>
                   </c:ext>
@@ -2654,11 +2348,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
               <a:t>TESTING DATASET WITH PREDICTIONS FOR PROFESSIONAL CATAEGORY</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -2767,31 +2467,7 @@
                   <c:pt idx="0">
                     <c:v>2011</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2011</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
                     <c:v>2012</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2908,31 +2584,7 @@
                   <c:pt idx="0">
                     <c:v>2011</c:v>
                   </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2011</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2011</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2012</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
                     <c:v>2012</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3076,31 +2728,7 @@
                         <c:pt idx="0">
                           <c:v>2011</c:v>
                         </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2011</c:v>
-                        </c:pt>
                         <c:pt idx="5">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
                           <c:v>2012</c:v>
                         </c:pt>
                       </c:lvl>
@@ -3165,7 +2793,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Professional!$F$1</c15:sqref>
@@ -3192,7 +2820,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Professional!$A$2:$B$11</c15:sqref>
@@ -3237,31 +2865,7 @@
                         <c:pt idx="0">
                           <c:v>2011</c:v>
                         </c:pt>
-                        <c:pt idx="1">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="3">
-                          <c:v>2011</c:v>
-                        </c:pt>
-                        <c:pt idx="4">
-                          <c:v>2011</c:v>
-                        </c:pt>
                         <c:pt idx="5">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="6">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="7">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="8">
-                          <c:v>2012</c:v>
-                        </c:pt>
-                        <c:pt idx="9">
                           <c:v>2012</c:v>
                         </c:pt>
                       </c:lvl>
@@ -3270,7 +2874,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Professional!$F$2:$F$11</c15:sqref>
@@ -3313,7 +2917,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-DDC5-4144-9DFE-2BFD14A898A3}"/>
                   </c:ext>
@@ -5570,16 +5174,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5611,16 +5215,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5913,8 +5517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5950,7 +5554,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>2011</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5971,9 +5575,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -5992,9 +5594,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -6013,9 +5613,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -6034,9 +5632,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -6055,7 +5651,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>2012</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -6076,9 +5672,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6097,9 +5691,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -6118,9 +5710,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -6139,9 +5729,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -6160,8 +5748,13 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6170,7 +5763,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6205,7 +5798,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>2011</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6226,9 +5819,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -6247,9 +5838,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -6268,9 +5857,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -6289,9 +5876,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -6310,9 +5895,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -6331,9 +5914,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -6352,9 +5933,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
@@ -6373,7 +5952,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>2012</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -6394,9 +5973,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
@@ -6415,9 +5992,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -6436,9 +6011,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -6457,9 +6030,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -6478,9 +6049,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
@@ -6499,9 +6068,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -6520,9 +6087,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
@@ -6541,6 +6106,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6550,8 +6119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507E7CCA-F227-44BE-9015-A562E81D07F0}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6587,7 +6156,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>2011</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6608,9 +6177,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
@@ -6629,9 +6196,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -6650,9 +6215,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -6671,9 +6234,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2011</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -6692,7 +6253,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>2012</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -6713,9 +6274,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
@@ -6734,9 +6293,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -6755,9 +6312,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -6776,9 +6331,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2012</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
@@ -6797,6 +6350,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
